--- a/Excel/edit_menu_select.xlsx
+++ b/Excel/edit_menu_select.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -37,19 +37,19 @@
     <t>For 2.2.0 Select has been moved from the Edit Menu and given its own Select Menu. See this page for details on selection.</t>
   </si>
   <si>
-    <t>मेनू संपादित करा: निवडा - ऑडसीटी मॅन्युअल</t>
-  </si>
-  <si>
     <t>मेनू संपादित करा: निवडा</t>
   </si>
   <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>२.२.० साठी सिलेक्ट एडिट मेनूमधून हलविण्यात आले आहे व त्यास स्वतःचे सिलेक्ट मेनू देण्यात आले आहे. निवडीवरील तपशीलांसाठी हे पृष्ठ पहा.</t>
+    <t>मेनू संपादित करा: संपादन मेनू  : निवडा - ओड्यासिटी माहितीपुस्तका - ऑडसीटी मॅन्युअल</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>२.२.० साठी निवडा संपादन मेनूमधून हलविण्यात आले आहे व त्यास स्वतःचे निवडा मेनू देण्यात आले आहे. निवडीवरील तपशीलांसाठी हे पृष्ठ पहा.</t>
   </si>
 </sst>
 </file>
@@ -409,9 +409,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -429,7 +435,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -440,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -462,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -478,5 +484,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>